--- a/output/results_viewer.xlsx
+++ b/output/results_viewer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>£0 to £180,000</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-05 08:58:15</t>
   </si>
 </sst>
 </file>
@@ -448,18 +451,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <b/>
@@ -481,12 +472,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <u val="single"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <b/>
@@ -518,13 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC9DEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DEF3"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,14 +555,6 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -568,27 +563,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -605,6 +579,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -615,6 +602,14 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -623,6 +618,14 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -645,49 +648,44 @@
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,42 +694,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,670 +1078,670 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.9" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="C5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="34" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="n">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
         <v>416.211082681262</v>
       </c>
-      <c r="I16" s="15" t="n">
-        <v>440.900852590772</v>
-      </c>
-      <c r="J16" s="15" t="n">
-        <v>460.047309407311</v>
-      </c>
-      <c r="K16" s="15" t="n">
-        <v>482.701658550193</v>
-      </c>
-      <c r="L16" s="15" t="n">
-        <v>511.974908792385</v>
-      </c>
-      <c r="M16" s="9" t="n">
-        <v>546.151234450284</v>
-      </c>
-      <c r="N16" s="19"/>
+      <c r="I16" s="7" t="n">
+        <v>440.901884543858</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>459.867155884026</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>482.314514240023</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>511.757972645637</v>
+      </c>
+      <c r="M16" s="42" t="n">
+        <v>545.718483323959</v>
+      </c>
+      <c r="N16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="19"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
+      <c r="D17" s="10"/>
+      <c r="E17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>285.325545477391</v>
       </c>
-      <c r="I17" s="10" t="n">
-        <v>313.023781399549</v>
-      </c>
-      <c r="J17" s="10" t="n">
-        <v>325.30389182084</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>344.213317991394</v>
-      </c>
-      <c r="L17" s="10" t="n">
-        <v>367.46926956274</v>
-      </c>
-      <c r="M17" s="25" t="n">
-        <v>396.409518073785</v>
-      </c>
-      <c r="N17" s="19"/>
+      <c r="I17" s="2" t="n">
+        <v>313.024813352635</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>325.125660733768</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>343.828274536222</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>367.176185745059</v>
+      </c>
+      <c r="M17" s="18" t="n">
+        <v>396.000418788539</v>
+      </c>
+      <c r="N17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="42" t="n">
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37" t="n">
         <v>148.173204321369</v>
       </c>
-      <c r="I18" s="42" t="n">
-        <v>171.557525759093</v>
-      </c>
-      <c r="J18" s="42" t="n">
-        <v>176.269158703534</v>
-      </c>
-      <c r="K18" s="42" t="n">
-        <v>188.157516174477</v>
-      </c>
-      <c r="L18" s="42" t="n">
-        <v>203.710617809483</v>
-      </c>
-      <c r="M18" s="26" t="n">
-        <v>223.58774650758</v>
-      </c>
-      <c r="N18" s="19"/>
+      <c r="I18" s="37" t="n">
+        <v>171.558557712179</v>
+      </c>
+      <c r="J18" s="37" t="n">
+        <v>176.785719117986</v>
+      </c>
+      <c r="K18" s="37" t="n">
+        <v>189.048892311974</v>
+      </c>
+      <c r="L18" s="37" t="n">
+        <v>204.785460576179</v>
+      </c>
+      <c r="M18" s="19" t="n">
+        <v>224.164236327965</v>
+      </c>
+      <c r="N18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="42" t="n">
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37" t="n">
         <v>137.152341156022</v>
       </c>
-      <c r="I19" s="42" t="n">
+      <c r="I19" s="37" t="n">
         <v>141.466255640456</v>
       </c>
-      <c r="J19" s="42" t="n">
-        <v>149.034733117307</v>
-      </c>
-      <c r="K19" s="42" t="n">
-        <v>156.055801816917</v>
-      </c>
-      <c r="L19" s="42" t="n">
-        <v>163.758651753258</v>
-      </c>
-      <c r="M19" s="26" t="n">
-        <v>172.821771566204</v>
-      </c>
-      <c r="N19" s="19"/>
+      <c r="J19" s="37" t="n">
+        <v>148.339941615782</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <v>154.779382224248</v>
+      </c>
+      <c r="L19" s="37" t="n">
+        <v>162.39072516888</v>
+      </c>
+      <c r="M19" s="19" t="n">
+        <v>171.836182460574</v>
+      </c>
+      <c r="N19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="19"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
+      <c r="D20" s="10"/>
+      <c r="E20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>130.885537203871</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="2" t="n">
         <v>127.877071191223</v>
       </c>
-      <c r="J20" s="10" t="n">
-        <v>134.743417586471</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>138.488340558799</v>
-      </c>
-      <c r="L20" s="10" t="n">
-        <v>144.505639229645</v>
-      </c>
-      <c r="M20" s="25" t="n">
-        <v>149.741716376499</v>
-      </c>
-      <c r="N20" s="19"/>
+      <c r="J20" s="2" t="n">
+        <v>134.741495150257</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>138.486239703801</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>144.581786900579</v>
+      </c>
+      <c r="M20" s="18" t="n">
+        <v>149.71806453542</v>
+      </c>
+      <c r="N20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="19"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="42" t="n">
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37" t="n">
         <v>122.331216216216</v>
       </c>
-      <c r="I21" s="42" t="n">
+      <c r="I21" s="37" t="n">
         <v>119.533948077779</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="37" t="n">
         <v>125.820686115309</v>
       </c>
-      <c r="K21" s="42" t="n">
-        <v>129.12921127067</v>
-      </c>
-      <c r="L21" s="42" t="n">
-        <v>134.723275792239</v>
-      </c>
-      <c r="M21" s="26" t="n">
-        <v>139.657643460152</v>
-      </c>
-      <c r="N21" s="19"/>
+      <c r="K21" s="37" t="n">
+        <v>129.129114690944</v>
+      </c>
+      <c r="L21" s="37" t="n">
+        <v>134.81738681084</v>
+      </c>
+      <c r="M21" s="19" t="n">
+        <v>139.587720617081</v>
+      </c>
+      <c r="N21" s="11"/>
     </row>
     <row r="22">
-      <c r="B22" s="21"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="37" t="n">
+      <c r="E22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="n">
         <v>8.55432098765432</v>
       </c>
-      <c r="I22" s="37" t="n">
+      <c r="I22" s="31" t="n">
         <v>8.34312311344332</v>
       </c>
-      <c r="J22" s="37" t="n">
-        <v>8.92273147116197</v>
-      </c>
-      <c r="K22" s="37" t="n">
-        <v>9.35912928812921</v>
-      </c>
-      <c r="L22" s="37" t="n">
-        <v>9.78236343740537</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>10.0840729163471</v>
-      </c>
-      <c r="N22" s="19"/>
+      <c r="J22" s="31" t="n">
+        <v>8.92080903494873</v>
+      </c>
+      <c r="K22" s="31" t="n">
+        <v>9.35712501285679</v>
+      </c>
+      <c r="L22" s="31" t="n">
+        <v>9.764400089739</v>
+      </c>
+      <c r="M22" s="23" t="n">
+        <v>10.130343918339</v>
+      </c>
+      <c r="N22" s="11"/>
     </row>
     <row r="23">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="19"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="19"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="19"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="19"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1803,450 +1806,450 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.9" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
       <c r="AF13" s="54"/>
     </row>
     <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="59" t="s">
@@ -2294,21 +2297,21 @@
       </c>
       <c r="AE14" s="60"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="19"/>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="58" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="58" t="s">
@@ -2317,7 +2320,7 @@
       <c r="J15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="58" t="s">
@@ -2326,7 +2329,7 @@
       <c r="M15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="58" t="s">
@@ -2335,7 +2338,7 @@
       <c r="P15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="R15" s="58" t="s">
@@ -2344,7 +2347,7 @@
       <c r="S15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="U15" s="58" t="s">
@@ -2353,7 +2356,7 @@
       <c r="V15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="58" t="s">
@@ -2362,7 +2365,7 @@
       <c r="Y15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="AA15" s="58" t="s">
@@ -2371,7 +2374,7 @@
       <c r="AB15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AC15" s="8" t="s">
+      <c r="AC15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="AD15" s="58" t="s">
@@ -2380,195 +2383,195 @@
       <c r="AE15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AF15" s="8" t="s">
+      <c r="AF15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AG15" s="19"/>
+      <c r="AG15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="n">
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="42" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9" t="n">
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="42" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="45" t="n">
         <v>68920</v>
       </c>
-      <c r="P16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9" t="n">
+      <c r="P16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42" t="n">
         <v>416.211082681262</v>
       </c>
       <c r="R16" s="45" t="n">
-        <v>64224</v>
-      </c>
-      <c r="S16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9" t="n">
-        <v>440.900852590772</v>
+        <v>64243</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="42" t="n">
+        <v>440.901884543858</v>
       </c>
       <c r="U16" s="45" t="n">
-        <v>66045</v>
-      </c>
-      <c r="V16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9" t="n">
-        <v>460.047309407311</v>
+        <v>66066</v>
+      </c>
+      <c r="V16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="42" t="n">
+        <v>459.867155884026</v>
       </c>
       <c r="X16" s="45" t="n">
-        <v>67348</v>
-      </c>
-      <c r="Y16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9" t="n">
-        <v>482.701658550193</v>
+        <v>67370</v>
+      </c>
+      <c r="Y16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="42" t="n">
+        <v>482.314514240023</v>
       </c>
       <c r="AA16" s="45" t="n">
-        <v>68181</v>
-      </c>
-      <c r="AB16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9" t="n">
-        <v>511.974908792385</v>
+        <v>68204</v>
+      </c>
+      <c r="AB16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="42" t="n">
+        <v>511.757972645637</v>
       </c>
       <c r="AD16" s="45" t="n">
-        <v>69035</v>
-      </c>
-      <c r="AE16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="9" t="n">
-        <v>546.151234450284</v>
-      </c>
-      <c r="AG16" s="19"/>
+        <v>69059</v>
+      </c>
+      <c r="AE16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="42" t="n">
+        <v>545.718483323959</v>
+      </c>
+      <c r="AG16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="19"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25" t="n">
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25" t="n">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25" t="n">
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="47" t="n">
         <v>62260</v>
       </c>
-      <c r="P17" s="10" t="n">
-        <v>13549.5791642776</v>
-      </c>
-      <c r="Q17" s="25" t="n">
+      <c r="P17" s="2" t="n">
+        <v>13549.5791631616</v>
+      </c>
+      <c r="Q17" s="18" t="n">
         <v>285.325545477391</v>
       </c>
       <c r="R17" s="47" t="n">
-        <v>59172</v>
-      </c>
-      <c r="S17" s="10" t="n">
-        <v>13699.7253053625</v>
-      </c>
-      <c r="T17" s="25" t="n">
-        <v>313.023781399549</v>
+        <v>59191</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>13702.2557288588</v>
+      </c>
+      <c r="T17" s="18" t="n">
+        <v>313.024813352635</v>
       </c>
       <c r="U17" s="47" t="n">
-        <v>60887</v>
-      </c>
-      <c r="V17" s="10" t="n">
-        <v>14246.5077200376</v>
-      </c>
-      <c r="W17" s="25" t="n">
-        <v>325.30389182084</v>
+        <v>60907</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>14249.3613449654</v>
+      </c>
+      <c r="W17" s="18" t="n">
+        <v>325.125660733768</v>
       </c>
       <c r="X17" s="47" t="n">
-        <v>62104</v>
-      </c>
-      <c r="Y17" s="10" t="n">
-        <v>14790.2706459892</v>
-      </c>
-      <c r="Z17" s="25" t="n">
-        <v>344.213317991394</v>
+        <v>62125</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>14793.3478990437</v>
+      </c>
+      <c r="Z17" s="18" t="n">
+        <v>343.828274536222</v>
       </c>
       <c r="AA17" s="47" t="n">
-        <v>62849</v>
-      </c>
-      <c r="AB17" s="10" t="n">
-        <v>15358.3092193348</v>
-      </c>
-      <c r="AC17" s="25" t="n">
-        <v>367.46926956274</v>
+        <v>62870</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>15361.4230017811</v>
+      </c>
+      <c r="AC17" s="18" t="n">
+        <v>367.176185745059</v>
       </c>
       <c r="AD17" s="47" t="n">
-        <v>63603</v>
-      </c>
-      <c r="AE17" s="10" t="n">
-        <v>16033.2205586311</v>
-      </c>
-      <c r="AF17" s="25" t="n">
-        <v>396.409518073785</v>
-      </c>
-      <c r="AG17" s="19"/>
+        <v>63624</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>16036.4867851863</v>
+      </c>
+      <c r="AF17" s="18" t="n">
+        <v>396.000418788539</v>
+      </c>
+      <c r="AG17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="19"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="43"/>
       <c r="C18" s="50"/>
       <c r="D18" s="50" t="s">
@@ -2606,697 +2609,697 @@
         <v>47990</v>
       </c>
       <c r="P18" s="55" t="n">
-        <v>10830.8440989686</v>
+        <v>10830.8440978526</v>
       </c>
       <c r="Q18" s="56" t="n">
         <v>148.173204321369</v>
       </c>
       <c r="R18" s="49" t="n">
-        <v>45728</v>
+        <v>45747</v>
       </c>
       <c r="S18" s="55" t="n">
-        <v>10943.0269953435</v>
+        <v>10945.5574188398</v>
       </c>
       <c r="T18" s="56" t="n">
-        <v>171.557525759093</v>
+        <v>171.558557712179</v>
       </c>
       <c r="U18" s="49" t="n">
-        <v>47038</v>
+        <v>47058</v>
       </c>
       <c r="V18" s="55" t="n">
-        <v>11356.5536179899</v>
+        <v>11369.6167017515</v>
       </c>
       <c r="W18" s="56" t="n">
-        <v>176.269158703534</v>
+        <v>176.785719117986</v>
       </c>
       <c r="X18" s="49" t="n">
-        <v>47989</v>
+        <v>48039</v>
       </c>
       <c r="Y18" s="55" t="n">
-        <v>11782.4909939695</v>
+        <v>11806.4982515164</v>
       </c>
       <c r="Z18" s="56" t="n">
-        <v>188.157516174477</v>
+        <v>189.048892311974</v>
       </c>
       <c r="AA18" s="49" t="n">
-        <v>48567</v>
+        <v>48618</v>
       </c>
       <c r="AB18" s="55" t="n">
-        <v>12230.9309271014</v>
+        <v>12256.2568238555</v>
       </c>
       <c r="AC18" s="56" t="n">
-        <v>203.710617809483</v>
+        <v>204.785460576179</v>
       </c>
       <c r="AD18" s="49" t="n">
-        <v>49167</v>
+        <v>49217</v>
       </c>
       <c r="AE18" s="55" t="n">
-        <v>12767.9003472341</v>
+        <v>12788.1104630886</v>
       </c>
       <c r="AF18" s="56" t="n">
-        <v>223.58774650758</v>
-      </c>
-      <c r="AG18" s="19"/>
+        <v>224.164236327965</v>
+      </c>
+      <c r="AG18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20" t="n">
+      <c r="G19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="n">
         <v>22280</v>
       </c>
-      <c r="P19" s="42" t="n">
-        <v>2795.63271946856</v>
-      </c>
-      <c r="Q19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="20" t="n">
-        <v>19075</v>
-      </c>
-      <c r="S19" s="42" t="n">
-        <v>2435.73392550613</v>
-      </c>
-      <c r="T19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="20" t="n">
-        <v>19068</v>
-      </c>
-      <c r="V19" s="42" t="n">
-        <v>2422.55196096621</v>
-      </c>
-      <c r="W19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="20" t="n">
-        <v>19005</v>
-      </c>
-      <c r="Y19" s="42" t="n">
-        <v>2430.48959090651</v>
-      </c>
-      <c r="Z19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="20" t="n">
-        <v>18175</v>
-      </c>
-      <c r="AB19" s="42" t="n">
-        <v>2328.66267287816</v>
-      </c>
-      <c r="AC19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="20" t="n">
+      <c r="P19" s="37" t="n">
+        <v>2795.63271835259</v>
+      </c>
+      <c r="Q19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13" t="n">
+        <v>19094</v>
+      </c>
+      <c r="S19" s="37" t="n">
+        <v>2438.26434900242</v>
+      </c>
+      <c r="T19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13" t="n">
+        <v>19058</v>
+      </c>
+      <c r="V19" s="37" t="n">
+        <v>2421.92487233402</v>
+      </c>
+      <c r="W19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>19003</v>
+      </c>
+      <c r="Y19" s="37" t="n">
+        <v>2430.96330269272</v>
+      </c>
+      <c r="Z19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>18181</v>
+      </c>
+      <c r="AB19" s="37" t="n">
+        <v>2329.97016183656</v>
+      </c>
+      <c r="AC19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="13" t="n">
         <v>17295</v>
       </c>
-      <c r="AE19" s="42" t="n">
-        <v>2227.60131111114</v>
-      </c>
-      <c r="AF19" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="19"/>
+      <c r="AE19" s="37" t="n">
+        <v>2227.78013837265</v>
+      </c>
+      <c r="AF19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="19"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20" t="n">
+      <c r="G20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="n">
         <v>7050</v>
       </c>
-      <c r="P20" s="42" t="n">
+      <c r="P20" s="37" t="n">
         <v>1424.6287242</v>
       </c>
-      <c r="Q20" s="26" t="n">
-        <v>3.75345781105834</v>
-      </c>
-      <c r="R20" s="20" t="n">
+      <c r="Q20" s="19" t="n">
+        <v>3.75465786153181</v>
+      </c>
+      <c r="R20" s="13" t="n">
         <v>6890</v>
       </c>
-      <c r="S20" s="42" t="n">
+      <c r="S20" s="37" t="n">
         <v>1382.77856409406</v>
       </c>
-      <c r="T20" s="26" t="n">
-        <v>2.30302278273247</v>
-      </c>
-      <c r="U20" s="20" t="n">
-        <v>7639</v>
-      </c>
-      <c r="V20" s="42" t="n">
-        <v>1532.52892699748</v>
-      </c>
-      <c r="W20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="20" t="n">
-        <v>7514</v>
-      </c>
-      <c r="Y20" s="42" t="n">
-        <v>1506.2705164094</v>
-      </c>
-      <c r="Z20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="20" t="n">
-        <v>8128</v>
-      </c>
-      <c r="AB20" s="42" t="n">
-        <v>1634.94939576718</v>
-      </c>
-      <c r="AC20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="20" t="n">
-        <v>8387</v>
-      </c>
-      <c r="AE20" s="42" t="n">
-        <v>1691.55363819288</v>
-      </c>
-      <c r="AF20" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="19"/>
+      <c r="T20" s="19" t="n">
+        <v>2.30788330252134</v>
+      </c>
+      <c r="U20" s="13" t="n">
+        <v>7640</v>
+      </c>
+      <c r="V20" s="37" t="n">
+        <v>1532.78455113228</v>
+      </c>
+      <c r="W20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>7516</v>
+      </c>
+      <c r="Y20" s="37" t="n">
+        <v>1506.94435964503</v>
+      </c>
+      <c r="Z20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>8132</v>
+      </c>
+      <c r="AB20" s="37" t="n">
+        <v>1636.02739278659</v>
+      </c>
+      <c r="AC20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13" t="n">
+        <v>8378</v>
+      </c>
+      <c r="AE20" s="37" t="n">
+        <v>1689.89575724265</v>
+      </c>
+      <c r="AF20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="19"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20" t="n">
+      <c r="G21" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="n">
         <v>3660</v>
       </c>
-      <c r="P21" s="42" t="n">
+      <c r="P21" s="37" t="n">
         <v>875.0428907</v>
       </c>
-      <c r="Q21" s="26" t="n">
-        <v>5.22976679285592</v>
-      </c>
-      <c r="R21" s="20" t="n">
+      <c r="Q21" s="19" t="n">
+        <v>5.22856674238245</v>
+      </c>
+      <c r="R21" s="13" t="n">
         <v>3295</v>
       </c>
-      <c r="S21" s="42" t="n">
+      <c r="S21" s="37" t="n">
         <v>778.844530938795</v>
       </c>
-      <c r="T21" s="26" t="n">
-        <v>4.07800641657529</v>
-      </c>
-      <c r="U21" s="20" t="n">
-        <v>3127</v>
-      </c>
-      <c r="V21" s="42" t="n">
-        <v>741.713307223703</v>
-      </c>
-      <c r="W21" s="26" t="n">
-        <v>2.10125246459762</v>
-      </c>
-      <c r="X21" s="20" t="n">
-        <v>3593</v>
-      </c>
-      <c r="Y21" s="42" t="n">
-        <v>852.401781448179</v>
-      </c>
-      <c r="Z21" s="26" t="n">
-        <v>2.42292663544401</v>
-      </c>
-      <c r="AA21" s="20" t="n">
-        <v>3117</v>
-      </c>
-      <c r="AB21" s="42" t="n">
-        <v>739.542232138798</v>
-      </c>
-      <c r="AC21" s="26" t="n">
-        <v>2.10560087920835</v>
-      </c>
-      <c r="AD21" s="20" t="n">
-        <v>3491</v>
-      </c>
-      <c r="AE21" s="42" t="n">
-        <v>831.630027656192</v>
-      </c>
-      <c r="AF21" s="26" t="n">
-        <v>2.54293839124218</v>
-      </c>
-      <c r="AG21" s="19"/>
+      <c r="T21" s="19" t="n">
+        <v>4.07237822573332</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>3130</v>
+      </c>
+      <c r="V21" s="37" t="n">
+        <v>742.429391556679</v>
+      </c>
+      <c r="W21" s="19" t="n">
+        <v>2.10380256215788</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>3599</v>
+      </c>
+      <c r="Y21" s="37" t="n">
+        <v>853.805936335286</v>
+      </c>
+      <c r="Z21" s="19" t="n">
+        <v>2.42624077806131</v>
+      </c>
+      <c r="AA21" s="13" t="n">
+        <v>3122</v>
+      </c>
+      <c r="AB21" s="37" t="n">
+        <v>740.736264187136</v>
+      </c>
+      <c r="AC21" s="19" t="n">
+        <v>2.109691574649</v>
+      </c>
+      <c r="AD21" s="13" t="n">
+        <v>3503</v>
+      </c>
+      <c r="AE21" s="37" t="n">
+        <v>834.445613462924</v>
+      </c>
+      <c r="AF21" s="19" t="n">
+        <v>2.54965391502915</v>
+      </c>
+      <c r="AG21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="20" t="n">
+      <c r="G22" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13" t="n">
         <v>10679</v>
       </c>
-      <c r="P22" s="42" t="n">
+      <c r="P22" s="37" t="n">
         <v>3316.1873662</v>
       </c>
-      <c r="Q22" s="26" t="n">
+      <c r="Q22" s="19" t="n">
         <v>50.8193599257885</v>
       </c>
-      <c r="R22" s="20" t="n">
+      <c r="R22" s="13" t="n">
         <v>11523</v>
       </c>
-      <c r="S22" s="42" t="n">
+      <c r="S22" s="37" t="n">
         <v>3568.72295920086</v>
       </c>
-      <c r="T22" s="26" t="n">
-        <v>59.3797835574808</v>
-      </c>
-      <c r="U22" s="20" t="n">
-        <v>11949</v>
-      </c>
-      <c r="V22" s="42" t="n">
-        <v>3700.48746367052</v>
-      </c>
-      <c r="W22" s="26" t="n">
-        <v>59.4817955992141</v>
-      </c>
-      <c r="X22" s="20" t="n">
-        <v>12176</v>
-      </c>
-      <c r="Y22" s="42" t="n">
-        <v>3785.29821085934</v>
-      </c>
-      <c r="Z22" s="26" t="n">
-        <v>61.4647375468766</v>
-      </c>
-      <c r="AA22" s="20" t="n">
-        <v>12911</v>
-      </c>
-      <c r="AB22" s="42" t="n">
-        <v>4008.65376800448</v>
-      </c>
-      <c r="AC22" s="26" t="n">
-        <v>64.8727568881539</v>
-      </c>
-      <c r="AD22" s="20" t="n">
-        <v>13153</v>
-      </c>
-      <c r="AE22" s="42" t="n">
-        <v>4124.57801831285</v>
-      </c>
-      <c r="AF22" s="26" t="n">
-        <v>68.4861308251618</v>
-      </c>
-      <c r="AG22" s="19"/>
+      <c r="T22" s="19" t="n">
+        <v>59.3753937759706</v>
+      </c>
+      <c r="U22" s="13" t="n">
+        <v>11971</v>
+      </c>
+      <c r="V22" s="37" t="n">
+        <v>3708.22404472593</v>
+      </c>
+      <c r="W22" s="19" t="n">
+        <v>59.6399536680484</v>
+      </c>
+      <c r="X22" s="13" t="n">
+        <v>12211</v>
+      </c>
+      <c r="Y22" s="37" t="n">
+        <v>3796.87745429268</v>
+      </c>
+      <c r="Z22" s="19" t="n">
+        <v>61.6766421988162</v>
+      </c>
+      <c r="AA22" s="13" t="n">
+        <v>12929</v>
+      </c>
+      <c r="AB22" s="37" t="n">
+        <v>4014.49525668595</v>
+      </c>
+      <c r="AC22" s="19" t="n">
+        <v>64.9719211196326</v>
+      </c>
+      <c r="AD22" s="13" t="n">
+        <v>13186</v>
+      </c>
+      <c r="AE22" s="37" t="n">
+        <v>4134.67118675678</v>
+      </c>
+      <c r="AF22" s="19" t="n">
+        <v>68.636478972543</v>
+      </c>
+      <c r="AG22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="19"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20" t="n">
+      <c r="G23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13" t="n">
         <v>3911</v>
       </c>
-      <c r="P23" s="42" t="n">
+      <c r="P23" s="37" t="n">
         <v>2016.9692915</v>
       </c>
-      <c r="Q23" s="26" t="n">
+      <c r="Q23" s="19" t="n">
         <v>66.5073697916667</v>
       </c>
-      <c r="R23" s="20" t="n">
+      <c r="R23" s="13" t="n">
         <v>4356</v>
       </c>
-      <c r="S23" s="42" t="n">
+      <c r="S23" s="37" t="n">
         <v>2221.15834101114</v>
       </c>
-      <c r="T23" s="26" t="n">
-        <v>75.9330173494246</v>
-      </c>
-      <c r="U23" s="20" t="n">
-        <v>4616</v>
-      </c>
-      <c r="V23" s="42" t="n">
-        <v>2348.18667848968</v>
-      </c>
-      <c r="W23" s="26" t="n">
-        <v>81.2735119314258</v>
-      </c>
-      <c r="X23" s="20" t="n">
-        <v>4981</v>
-      </c>
-      <c r="Y23" s="42" t="n">
-        <v>2521.98028782662</v>
-      </c>
-      <c r="Z23" s="26" t="n">
-        <v>86.8587137563472</v>
-      </c>
-      <c r="AA23" s="20" t="n">
-        <v>5417</v>
-      </c>
-      <c r="AB23" s="42" t="n">
-        <v>2738.8051330157</v>
-      </c>
-      <c r="AC23" s="26" t="n">
-        <v>94.1834140333651</v>
-      </c>
-      <c r="AD23" s="20" t="n">
-        <v>5892</v>
-      </c>
-      <c r="AE23" s="42" t="n">
-        <v>2983.55949751348</v>
-      </c>
-      <c r="AF23" s="26" t="n">
-        <v>102.767507264293</v>
-      </c>
-      <c r="AG23" s="19"/>
+      <c r="T23" s="19" t="n">
+        <v>75.9341002745595</v>
+      </c>
+      <c r="U23" s="13" t="n">
+        <v>4619</v>
+      </c>
+      <c r="V23" s="37" t="n">
+        <v>2350.11814652184</v>
+      </c>
+      <c r="W23" s="19" t="n">
+        <v>81.357858062107</v>
+      </c>
+      <c r="X23" s="13" t="n">
+        <v>4987</v>
+      </c>
+      <c r="Y23" s="37" t="n">
+        <v>2525.35587136966</v>
+      </c>
+      <c r="Z23" s="19" t="n">
+        <v>86.9902711962274</v>
+      </c>
+      <c r="AA23" s="13" t="n">
+        <v>5429</v>
+      </c>
+      <c r="AB23" s="37" t="n">
+        <v>2744.47243597756</v>
+      </c>
+      <c r="AC23" s="19" t="n">
+        <v>94.3670293947592</v>
+      </c>
+      <c r="AD23" s="13" t="n">
+        <v>5902</v>
+      </c>
+      <c r="AE23" s="37" t="n">
+        <v>2987.41712633091</v>
+      </c>
+      <c r="AF23" s="19" t="n">
+        <v>102.860116632602</v>
+      </c>
+      <c r="AG23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="19"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20" t="n">
+      <c r="G24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13" t="n">
         <v>381</v>
       </c>
-      <c r="P24" s="42" t="n">
+      <c r="P24" s="37" t="n">
         <v>353.5213879</v>
       </c>
-      <c r="Q24" s="26" t="n">
+      <c r="Q24" s="19" t="n">
         <v>18.38325</v>
       </c>
-      <c r="R24" s="20" t="n">
+      <c r="R24" s="13" t="n">
         <v>557</v>
       </c>
-      <c r="S24" s="42" t="n">
+      <c r="S24" s="37" t="n">
         <v>500.672042799136</v>
       </c>
-      <c r="T24" s="26" t="n">
-        <v>25.8775888717847</v>
-      </c>
-      <c r="U24" s="20" t="n">
+      <c r="T24" s="19" t="n">
+        <v>25.8817032328274</v>
+      </c>
+      <c r="U24" s="13" t="n">
         <v>603</v>
       </c>
-      <c r="V24" s="42" t="n">
-        <v>542.383023185094</v>
-      </c>
-      <c r="W24" s="26" t="n">
-        <v>28.1929040331824</v>
-      </c>
-      <c r="X24" s="20" t="n">
-        <v>679</v>
-      </c>
-      <c r="Y24" s="42" t="n">
-        <v>608.602280010438</v>
-      </c>
-      <c r="Z24" s="26" t="n">
-        <v>31.5526283978616</v>
-      </c>
-      <c r="AA24" s="20" t="n">
-        <v>774</v>
-      </c>
-      <c r="AB24" s="42" t="n">
-        <v>694.727627578222</v>
-      </c>
-      <c r="AC24" s="26" t="n">
-        <v>36.0553683941109</v>
-      </c>
-      <c r="AD24" s="20" t="n">
-        <v>902</v>
-      </c>
-      <c r="AE24" s="42" t="n">
-        <v>814.537257378112</v>
-      </c>
-      <c r="AF24" s="26" t="n">
-        <v>42.4629051205199</v>
-      </c>
-      <c r="AG24" s="19"/>
+      <c r="V24" s="37" t="n">
+        <v>542.41035457631</v>
+      </c>
+      <c r="W24" s="19" t="n">
+        <v>28.1987746593254</v>
+      </c>
+      <c r="X24" s="13" t="n">
+        <v>680</v>
+      </c>
+      <c r="Y24" s="37" t="n">
+        <v>608.887661588482</v>
+      </c>
+      <c r="Z24" s="19" t="n">
+        <v>31.5476476068743</v>
+      </c>
+      <c r="AA24" s="13" t="n">
+        <v>777</v>
+      </c>
+      <c r="AB24" s="37" t="n">
+        <v>696.748801749692</v>
+      </c>
+      <c r="AC24" s="19" t="n">
+        <v>36.1387380299619</v>
+      </c>
+      <c r="AD24" s="13" t="n">
+        <v>904</v>
+      </c>
+      <c r="AE24" s="37" t="n">
+        <v>815.59419615199</v>
+      </c>
+      <c r="AF24" s="19" t="n">
+        <v>42.4944295145312</v>
+      </c>
+      <c r="AG24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20" t="n">
+      <c r="G25" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="P25" s="42" t="n">
+      <c r="P25" s="37" t="n">
         <v>48.861719</v>
       </c>
-      <c r="Q25" s="26" t="n">
+      <c r="Q25" s="19" t="n">
         <v>3.48</v>
       </c>
-      <c r="R25" s="20" t="n">
+      <c r="R25" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="S25" s="42" t="n">
+      <c r="S25" s="37" t="n">
         <v>55.1166317934134</v>
       </c>
-      <c r="T25" s="26" t="n">
-        <v>3.98610678109549</v>
-      </c>
-      <c r="U25" s="20" t="n">
-        <v>36</v>
-      </c>
-      <c r="V25" s="42" t="n">
-        <v>68.7022574572338</v>
-      </c>
-      <c r="W25" s="26" t="n">
-        <v>5.21969467511359</v>
-      </c>
-      <c r="X25" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="42" t="n">
-        <v>77.4483265090473</v>
-      </c>
-      <c r="Z25" s="26" t="n">
-        <v>5.85850983794743</v>
-      </c>
-      <c r="AA25" s="20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB25" s="42" t="n">
-        <v>85.5900977188289</v>
-      </c>
-      <c r="AC25" s="26" t="n">
-        <v>6.49347761464429</v>
-      </c>
-      <c r="AD25" s="20" t="n">
-        <v>47</v>
-      </c>
-      <c r="AE25" s="42" t="n">
-        <v>94.4405970694865</v>
-      </c>
-      <c r="AF25" s="26" t="n">
-        <v>7.32826490636376</v>
-      </c>
-      <c r="AG25" s="19"/>
+      <c r="T25" s="19" t="n">
+        <v>3.98709890056716</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="V25" s="37" t="n">
+        <v>71.7253409044726</v>
+      </c>
+      <c r="W25" s="19" t="n">
+        <v>5.48533016634727</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="37" t="n">
+        <v>83.6636655925686</v>
+      </c>
+      <c r="Z25" s="19" t="n">
+        <v>6.40809053199464</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB25" s="37" t="n">
+        <v>93.8065106319785</v>
+      </c>
+      <c r="AC25" s="19" t="n">
+        <v>7.19808045717627</v>
+      </c>
+      <c r="AD25" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE25" s="37" t="n">
+        <v>98.3064447707231</v>
+      </c>
+      <c r="AF25" s="19" t="n">
+        <v>7.62355729325995</v>
+      </c>
+      <c r="AG25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="19"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="43"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50" t="s">
@@ -3352,770 +3355,770 @@
         <v>13849</v>
       </c>
       <c r="V26" s="55" t="n">
-        <v>2889.95410204771</v>
+        <v>2879.74464321391</v>
       </c>
       <c r="W26" s="56" t="n">
-        <v>149.034733117307</v>
+        <v>148.339941615782</v>
       </c>
       <c r="X26" s="49" t="n">
-        <v>14115</v>
+        <v>14086</v>
       </c>
       <c r="Y26" s="55" t="n">
-        <v>3007.77965201962</v>
+        <v>2986.84964752723</v>
       </c>
       <c r="Z26" s="56" t="n">
-        <v>156.055801816917</v>
+        <v>154.779382224248</v>
       </c>
       <c r="AA26" s="49" t="n">
-        <v>14282</v>
+        <v>14252</v>
       </c>
       <c r="AB26" s="55" t="n">
-        <v>3127.37829223347</v>
+        <v>3105.1661779256</v>
       </c>
       <c r="AC26" s="56" t="n">
-        <v>163.758651753258</v>
+        <v>162.39072516888</v>
       </c>
       <c r="AD26" s="49" t="n">
-        <v>14436</v>
+        <v>14407</v>
       </c>
       <c r="AE26" s="55" t="n">
-        <v>3265.320211397</v>
+        <v>3248.37632209762</v>
       </c>
       <c r="AF26" s="56" t="n">
-        <v>172.821771566204</v>
-      </c>
-      <c r="AG26" s="19"/>
+        <v>171.836182460574</v>
+      </c>
+      <c r="AG26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="19"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20" t="n">
+      <c r="G27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13" t="n">
         <v>9350</v>
       </c>
-      <c r="P27" s="42" t="n">
+      <c r="P27" s="37" t="n">
         <v>1001.816588209</v>
       </c>
-      <c r="Q27" s="26" t="n">
+      <c r="Q27" s="19" t="n">
         <v>37.9673819742489</v>
       </c>
-      <c r="R27" s="20" t="n">
+      <c r="R27" s="13" t="n">
         <v>8228</v>
       </c>
-      <c r="S27" s="42" t="n">
+      <c r="S27" s="37" t="n">
         <v>920.163654845907</v>
       </c>
-      <c r="T27" s="26" t="n">
+      <c r="T27" s="19" t="n">
         <v>34.8728553445225</v>
       </c>
-      <c r="U27" s="20" t="n">
-        <v>8363</v>
-      </c>
-      <c r="V27" s="42" t="n">
-        <v>944.53046424972</v>
-      </c>
-      <c r="W27" s="26" t="n">
-        <v>35.7963217464736</v>
-      </c>
-      <c r="X27" s="20" t="n">
-        <v>8317</v>
-      </c>
-      <c r="Y27" s="42" t="n">
-        <v>946.783207850941</v>
-      </c>
-      <c r="Z27" s="26" t="n">
-        <v>35.8816974308097</v>
-      </c>
-      <c r="AA27" s="20" t="n">
-        <v>8057</v>
-      </c>
-      <c r="AB27" s="42" t="n">
-        <v>919.586747974263</v>
-      </c>
-      <c r="AC27" s="26" t="n">
-        <v>34.850991418713</v>
-      </c>
-      <c r="AD27" s="20" t="n">
-        <v>7776</v>
-      </c>
-      <c r="AE27" s="42" t="n">
-        <v>894.0462141675</v>
-      </c>
-      <c r="AF27" s="26" t="n">
-        <v>33.8830425802922</v>
-      </c>
-      <c r="AG27" s="19"/>
+      <c r="U27" s="13" t="n">
+        <v>8392</v>
+      </c>
+      <c r="V27" s="37" t="n">
+        <v>947.698370806235</v>
+      </c>
+      <c r="W27" s="19" t="n">
+        <v>35.9163807669625</v>
+      </c>
+      <c r="X27" s="13" t="n">
+        <v>8339</v>
+      </c>
+      <c r="Y27" s="37" t="n">
+        <v>949.067734409787</v>
+      </c>
+      <c r="Z27" s="19" t="n">
+        <v>35.9682776427076</v>
+      </c>
+      <c r="AA27" s="13" t="n">
+        <v>8072</v>
+      </c>
+      <c r="AB27" s="37" t="n">
+        <v>921.219530449537</v>
+      </c>
+      <c r="AC27" s="19" t="n">
+        <v>34.9128714840356</v>
+      </c>
+      <c r="AD27" s="13" t="n">
+        <v>7795</v>
+      </c>
+      <c r="AE27" s="37" t="n">
+        <v>896.59032239975</v>
+      </c>
+      <c r="AF27" s="19" t="n">
+        <v>33.9794605575692</v>
+      </c>
+      <c r="AG27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="19"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="20" t="n">
+      <c r="G28" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13" t="n">
         <v>1500</v>
       </c>
-      <c r="P28" s="42" t="n">
+      <c r="P28" s="37" t="n">
         <v>300.8119406</v>
       </c>
-      <c r="Q28" s="26" t="n">
+      <c r="Q28" s="19" t="n">
         <v>12.4804521724637</v>
       </c>
-      <c r="R28" s="20" t="n">
+      <c r="R28" s="13" t="n">
         <v>1656</v>
       </c>
-      <c r="S28" s="42" t="n">
+      <c r="S28" s="37" t="n">
         <v>332.307916526351</v>
       </c>
-      <c r="T28" s="26" t="n">
+      <c r="T28" s="19" t="n">
         <v>13.7935213776798</v>
       </c>
-      <c r="U28" s="20" t="n">
-        <v>1671</v>
-      </c>
-      <c r="V28" s="42" t="n">
-        <v>336.714536961789</v>
-      </c>
-      <c r="W28" s="26" t="n">
-        <v>14.01816990978</v>
-      </c>
-      <c r="X28" s="20" t="n">
-        <v>1765</v>
-      </c>
-      <c r="Y28" s="42" t="n">
-        <v>355.917525708439</v>
-      </c>
-      <c r="Z28" s="26" t="n">
-        <v>14.8254164387231</v>
-      </c>
-      <c r="AA28" s="20" t="n">
-        <v>1976</v>
-      </c>
-      <c r="AB28" s="42" t="n">
-        <v>397.402063716191</v>
-      </c>
-      <c r="AC28" s="26" t="n">
-        <v>16.5217665689255</v>
-      </c>
-      <c r="AD28" s="20" t="n">
-        <v>2044</v>
-      </c>
-      <c r="AE28" s="42" t="n">
-        <v>409.307773967555</v>
-      </c>
-      <c r="AF28" s="26" t="n">
-        <v>16.963957784794</v>
-      </c>
-      <c r="AG28" s="19"/>
+      <c r="U28" s="13" t="n">
+        <v>1670</v>
+      </c>
+      <c r="V28" s="37" t="n">
+        <v>336.450288903183</v>
+      </c>
+      <c r="W28" s="19" t="n">
+        <v>14.0053013536225</v>
+      </c>
+      <c r="X28" s="13" t="n">
+        <v>1764</v>
+      </c>
+      <c r="Y28" s="37" t="n">
+        <v>355.48478668626</v>
+      </c>
+      <c r="Z28" s="19" t="n">
+        <v>14.8005187076411</v>
+      </c>
+      <c r="AA28" s="13" t="n">
+        <v>1972</v>
+      </c>
+      <c r="AB28" s="37" t="n">
+        <v>396.383833889722</v>
+      </c>
+      <c r="AC28" s="19" t="n">
+        <v>16.4730597317916</v>
+      </c>
+      <c r="AD28" s="13" t="n">
+        <v>2053</v>
+      </c>
+      <c r="AE28" s="37" t="n">
+        <v>410.943463536814</v>
+      </c>
+      <c r="AF28" s="19" t="n">
+        <v>17.0267619820248</v>
+      </c>
+      <c r="AG28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="19"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="20" t="n">
+      <c r="G29" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13" t="n">
         <v>660</v>
       </c>
-      <c r="P29" s="42" t="n">
+      <c r="P29" s="37" t="n">
         <v>157.8466116</v>
       </c>
-      <c r="Q29" s="26" t="n">
+      <c r="Q29" s="19" t="n">
         <v>7.31117573451308</v>
       </c>
-      <c r="R29" s="20" t="n">
+      <c r="R29" s="13" t="n">
         <v>511</v>
       </c>
-      <c r="S29" s="42" t="n">
+      <c r="S29" s="37" t="n">
         <v>121.426935848492</v>
       </c>
-      <c r="T29" s="26" t="n">
+      <c r="T29" s="19" t="n">
         <v>5.60460648678991</v>
       </c>
-      <c r="U29" s="20" t="n">
-        <v>548</v>
-      </c>
-      <c r="V29" s="42" t="n">
-        <v>130.024759253897</v>
-      </c>
-      <c r="W29" s="26" t="n">
-        <v>5.99654469313472</v>
-      </c>
-      <c r="X29" s="20" t="n">
-        <v>610</v>
-      </c>
-      <c r="Y29" s="42" t="n">
-        <v>145.199777831295</v>
-      </c>
-      <c r="Z29" s="26" t="n">
-        <v>6.70812593998964</v>
-      </c>
-      <c r="AA29" s="20" t="n">
-        <v>633</v>
-      </c>
-      <c r="AB29" s="42" t="n">
-        <v>150.770642544633</v>
-      </c>
-      <c r="AC29" s="26" t="n">
-        <v>6.96791755869149</v>
-      </c>
-      <c r="AD29" s="20" t="n">
-        <v>646</v>
-      </c>
-      <c r="AE29" s="42" t="n">
-        <v>151.904799400644</v>
-      </c>
-      <c r="AF29" s="26" t="n">
-        <v>6.97092728802333</v>
-      </c>
-      <c r="AG29" s="19"/>
+      <c r="U29" s="13" t="n">
+        <v>545</v>
+      </c>
+      <c r="V29" s="37" t="n">
+        <v>129.302636308263</v>
+      </c>
+      <c r="W29" s="19" t="n">
+        <v>5.96298092787918</v>
+      </c>
+      <c r="X29" s="13" t="n">
+        <v>604</v>
+      </c>
+      <c r="Y29" s="37" t="n">
+        <v>143.812766732708</v>
+      </c>
+      <c r="Z29" s="19" t="n">
+        <v>6.64508460685276</v>
+      </c>
+      <c r="AA29" s="13" t="n">
+        <v>627</v>
+      </c>
+      <c r="AB29" s="37" t="n">
+        <v>149.340877906742</v>
+      </c>
+      <c r="AC29" s="19" t="n">
+        <v>6.90182389685975</v>
+      </c>
+      <c r="AD29" s="13" t="n">
+        <v>635</v>
+      </c>
+      <c r="AE29" s="37" t="n">
+        <v>149.299654953223</v>
+      </c>
+      <c r="AF29" s="19" t="n">
+        <v>6.85090434909236</v>
+      </c>
+      <c r="AG29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="19"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="20" t="n">
+      <c r="G30" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13" t="n">
         <v>1840</v>
       </c>
-      <c r="P30" s="42" t="n">
+      <c r="P30" s="37" t="n">
         <v>573.0524511</v>
       </c>
-      <c r="Q30" s="26" t="n">
+      <c r="Q30" s="19" t="n">
         <v>31.5715846994535</v>
       </c>
-      <c r="R30" s="20" t="n">
+      <c r="R30" s="13" t="n">
         <v>1953</v>
       </c>
-      <c r="S30" s="42" t="n">
+      <c r="S30" s="37" t="n">
         <v>597.552763116477</v>
       </c>
-      <c r="T30" s="26" t="n">
+      <c r="T30" s="19" t="n">
         <v>32.5921162659021</v>
       </c>
-      <c r="U30" s="20" t="n">
-        <v>2114</v>
-      </c>
-      <c r="V30" s="42" t="n">
-        <v>649.954708417313</v>
-      </c>
-      <c r="W30" s="26" t="n">
-        <v>35.5487267413821</v>
-      </c>
-      <c r="X30" s="20" t="n">
-        <v>2177</v>
-      </c>
-      <c r="Y30" s="42" t="n">
-        <v>672.002722906758</v>
-      </c>
-      <c r="Z30" s="26" t="n">
-        <v>36.8381799210754</v>
-      </c>
-      <c r="AA30" s="20" t="n">
-        <v>2316</v>
-      </c>
-      <c r="AB30" s="42" t="n">
-        <v>722.136882210435</v>
-      </c>
-      <c r="AC30" s="26" t="n">
-        <v>39.8110131731371</v>
-      </c>
-      <c r="AD30" s="20" t="n">
-        <v>2485</v>
-      </c>
-      <c r="AE30" s="42" t="n">
-        <v>765.690051347584</v>
-      </c>
-      <c r="AF30" s="26" t="n">
-        <v>41.9308833606033</v>
-      </c>
-      <c r="AG30" s="19"/>
+      <c r="U30" s="13" t="n">
+        <v>2093</v>
+      </c>
+      <c r="V30" s="37" t="n">
+        <v>642.556464048648</v>
+      </c>
+      <c r="W30" s="19" t="n">
+        <v>35.1147085085</v>
+      </c>
+      <c r="X30" s="13" t="n">
+        <v>2142</v>
+      </c>
+      <c r="Y30" s="37" t="n">
+        <v>660.504978607837</v>
+      </c>
+      <c r="Z30" s="19" t="n">
+        <v>36.1863328114589</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AB30" s="37" t="n">
+        <v>716.673536696163</v>
+      </c>
+      <c r="AC30" s="19" t="n">
+        <v>39.5048177521184</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>2453</v>
+      </c>
+      <c r="AE30" s="37" t="n">
+        <v>755.990190932632</v>
+      </c>
+      <c r="AF30" s="19" t="n">
+        <v>41.4046819217501</v>
+      </c>
+      <c r="AG30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="19"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="20" t="n">
+      <c r="G31" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="P31" s="42" t="n">
+      <c r="P31" s="37" t="n">
         <v>390.2457785</v>
       </c>
-      <c r="Q31" s="26" t="n">
+      <c r="Q31" s="19" t="n">
         <v>27.5342465753425</v>
       </c>
-      <c r="R31" s="20" t="n">
+      <c r="R31" s="13" t="n">
         <v>905</v>
       </c>
-      <c r="S31" s="42" t="n">
+      <c r="S31" s="37" t="n">
         <v>461.326285200361</v>
       </c>
-      <c r="T31" s="26" t="n">
+      <c r="T31" s="19" t="n">
         <v>32.2091431540994</v>
       </c>
-      <c r="U31" s="20" t="n">
-        <v>950</v>
-      </c>
-      <c r="V31" s="42" t="n">
-        <v>486.422183396212</v>
-      </c>
-      <c r="W31" s="26" t="n">
-        <v>34.0395868951369</v>
-      </c>
-      <c r="X31" s="20" t="n">
-        <v>1028</v>
-      </c>
-      <c r="Y31" s="42" t="n">
-        <v>525.441619291337</v>
-      </c>
-      <c r="Z31" s="26" t="n">
-        <v>36.7369651798275</v>
-      </c>
-      <c r="AA31" s="20" t="n">
-        <v>1062</v>
-      </c>
-      <c r="AB31" s="42" t="n">
-        <v>549.00070514247</v>
-      </c>
-      <c r="AC31" s="26" t="n">
-        <v>38.6078387337988</v>
-      </c>
-      <c r="AD31" s="20" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AE31" s="42" t="n">
-        <v>622.875334426233</v>
-      </c>
-      <c r="AF31" s="26" t="n">
-        <v>43.5237221673589</v>
-      </c>
-      <c r="AG31" s="19"/>
+      <c r="U31" s="13" t="n">
+        <v>947</v>
+      </c>
+      <c r="V31" s="37" t="n">
+        <v>484.482582647042</v>
+      </c>
+      <c r="W31" s="19" t="n">
+        <v>33.8892743496197</v>
+      </c>
+      <c r="X31" s="13" t="n">
+        <v>1022</v>
+      </c>
+      <c r="Y31" s="37" t="n">
+        <v>522.051302443413</v>
+      </c>
+      <c r="Z31" s="19" t="n">
+        <v>36.4882162097077</v>
+      </c>
+      <c r="AA31" s="13" t="n">
+        <v>1050</v>
+      </c>
+      <c r="AB31" s="37" t="n">
+        <v>543.312093002837</v>
+      </c>
+      <c r="AC31" s="19" t="n">
+        <v>38.2262164755704</v>
+      </c>
+      <c r="AD31" s="13" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AE31" s="37" t="n">
+        <v>618.988956540344</v>
+      </c>
+      <c r="AF31" s="19" t="n">
+        <v>43.2963365868113</v>
+      </c>
+      <c r="AG31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="19"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="20" t="n">
+      <c r="G32" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="n">
         <v>105</v>
       </c>
-      <c r="P32" s="42" t="n">
+      <c r="P32" s="37" t="n">
         <v>101.2946023</v>
       </c>
-      <c r="Q32" s="26" t="n">
+      <c r="Q32" s="19" t="n">
         <v>8.75</v>
       </c>
-      <c r="R32" s="20" t="n">
+      <c r="R32" s="13" t="n">
         <v>123</v>
       </c>
-      <c r="S32" s="42" t="n">
+      <c r="S32" s="37" t="n">
         <v>116.509515360417</v>
       </c>
-      <c r="T32" s="26" t="n">
+      <c r="T32" s="19" t="n">
         <v>9.98943461738059</v>
       </c>
-      <c r="U32" s="20" t="n">
+      <c r="U32" s="13" t="n">
         <v>131</v>
       </c>
-      <c r="V32" s="42" t="n">
-        <v>123.289956347276</v>
-      </c>
-      <c r="W32" s="26" t="n">
-        <v>10.5425072483385</v>
-      </c>
-      <c r="X32" s="20" t="n">
-        <v>143</v>
-      </c>
-      <c r="Y32" s="42" t="n">
-        <v>133.40314495329</v>
-      </c>
-      <c r="Z32" s="26" t="n">
-        <v>11.3651504711079</v>
-      </c>
-      <c r="AA32" s="20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB32" s="42" t="n">
-        <v>148.54797383348</v>
-      </c>
-      <c r="AC32" s="26" t="n">
-        <v>12.6296806408607</v>
-      </c>
-      <c r="AD32" s="20" t="n">
-        <v>185</v>
-      </c>
-      <c r="AE32" s="42" t="n">
-        <v>170.867113671275</v>
-      </c>
-      <c r="AF32" s="26" t="n">
-        <v>14.4950205595032</v>
-      </c>
-      <c r="AG32" s="19"/>
+      <c r="V32" s="37" t="n">
+        <v>123.261661599159</v>
+      </c>
+      <c r="W32" s="19" t="n">
+        <v>10.5390779193009</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y32" s="37" t="n">
+        <v>133.113869674421</v>
+      </c>
+      <c r="Z32" s="19" t="n">
+        <v>11.3636800192081</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>157</v>
+      </c>
+      <c r="AB32" s="37" t="n">
+        <v>146.521944512642</v>
+      </c>
+      <c r="AC32" s="19" t="n">
+        <v>12.4848947950451</v>
+      </c>
+      <c r="AD32" s="13" t="n">
+        <v>183</v>
+      </c>
+      <c r="AE32" s="37" t="n">
+        <v>169.80348803146</v>
+      </c>
+      <c r="AF32" s="19" t="n">
+        <v>14.4332884603379</v>
+      </c>
+      <c r="AG32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="19"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="20" t="n">
+      <c r="G33" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="13" t="n">
         <v>65</v>
       </c>
-      <c r="P33" s="42" t="n">
+      <c r="P33" s="37" t="n">
         <v>193.667093</v>
       </c>
-      <c r="Q33" s="26" t="n">
+      <c r="Q33" s="19" t="n">
         <v>11.5375</v>
       </c>
-      <c r="R33" s="20" t="n">
+      <c r="R33" s="13" t="n">
         <v>68</v>
       </c>
-      <c r="S33" s="42" t="n">
+      <c r="S33" s="37" t="n">
         <v>207.411239120942</v>
       </c>
-      <c r="T33" s="26" t="n">
+      <c r="T33" s="19" t="n">
         <v>12.4045783940819</v>
       </c>
-      <c r="U33" s="20" t="n">
-        <v>72</v>
-      </c>
-      <c r="V33" s="42" t="n">
-        <v>219.017493421509</v>
-      </c>
-      <c r="W33" s="26" t="n">
-        <v>13.0928758830609</v>
-      </c>
-      <c r="X33" s="20" t="n">
+      <c r="U33" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="V33" s="37" t="n">
+        <v>215.992638901384</v>
+      </c>
+      <c r="W33" s="19" t="n">
+        <v>12.9122177898976</v>
+      </c>
+      <c r="X33" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y33" s="37" t="n">
+        <v>222.814208972804</v>
+      </c>
+      <c r="Z33" s="19" t="n">
+        <v>13.327272226672</v>
+      </c>
+      <c r="AA33" s="13" t="n">
         <v>75</v>
       </c>
-      <c r="Y33" s="42" t="n">
-        <v>229.031653477559</v>
-      </c>
-      <c r="Z33" s="26" t="n">
-        <v>13.7002664353842</v>
-      </c>
-      <c r="AA33" s="20" t="n">
+      <c r="AB33" s="37" t="n">
+        <v>231.714361467956</v>
+      </c>
+      <c r="AC33" s="19" t="n">
+        <v>13.887041033459</v>
+      </c>
+      <c r="AD33" s="13" t="n">
         <v>78</v>
       </c>
-      <c r="AB33" s="42" t="n">
-        <v>239.933276812001</v>
-      </c>
-      <c r="AC33" s="26" t="n">
-        <v>14.3694436591309</v>
-      </c>
-      <c r="AD33" s="20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE33" s="42" t="n">
-        <v>250.628924416213</v>
-      </c>
-      <c r="AF33" s="26" t="n">
-        <v>15.0542178256293</v>
-      </c>
-      <c r="AG33" s="19"/>
+      <c r="AE33" s="37" t="n">
+        <v>246.760245703401</v>
+      </c>
+      <c r="AF33" s="19" t="n">
+        <v>14.844748602988</v>
+      </c>
+      <c r="AG33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="19"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="18" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25" t="n">
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25" t="n">
+      <c r="J34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="25" t="n">
+      <c r="M34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="47" t="n">
         <v>6660</v>
       </c>
-      <c r="P34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25" t="n">
+      <c r="P34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18" t="n">
         <v>130.885537203871</v>
       </c>
       <c r="R34" s="47" t="n">
         <v>5052</v>
       </c>
-      <c r="S34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="25" t="n">
+      <c r="S34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="18" t="n">
         <v>127.877071191223</v>
       </c>
       <c r="U34" s="47" t="n">
-        <v>5158</v>
-      </c>
-      <c r="V34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="25" t="n">
-        <v>134.743417586471</v>
+        <v>5159</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="18" t="n">
+        <v>134.741495150257</v>
       </c>
       <c r="X34" s="47" t="n">
-        <v>5244</v>
-      </c>
-      <c r="Y34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="25" t="n">
-        <v>138.488340558799</v>
+        <v>5245</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="18" t="n">
+        <v>138.486239703801</v>
       </c>
       <c r="AA34" s="47" t="n">
-        <v>5332</v>
-      </c>
-      <c r="AB34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="25" t="n">
-        <v>144.505639229645</v>
+        <v>5334</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="18" t="n">
+        <v>144.581786900579</v>
       </c>
       <c r="AD34" s="47" t="n">
-        <v>5432</v>
-      </c>
-      <c r="AE34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="25" t="n">
-        <v>149.741716376499</v>
-      </c>
-      <c r="AG34" s="19"/>
+        <v>5435</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="18" t="n">
+        <v>149.71806453542</v>
+      </c>
+      <c r="AG34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="19"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="43"/>
       <c r="C35" s="50"/>
       <c r="D35" s="50" t="s">
@@ -4168,588 +4171,588 @@
         <v>119.533948077779</v>
       </c>
       <c r="U35" s="49" t="n">
-        <v>5158</v>
+        <v>5159</v>
       </c>
       <c r="V35" s="55" t="n">
-        <v>3500.17623097745</v>
+        <v>3500.22440617269</v>
       </c>
       <c r="W35" s="56" t="n">
         <v>125.820686115309</v>
       </c>
       <c r="X35" s="49" t="n">
-        <v>5244</v>
+        <v>5245</v>
       </c>
       <c r="Y35" s="55" t="n">
-        <v>3589.73639915189</v>
+        <v>3589.78086563181</v>
       </c>
       <c r="Z35" s="56" t="n">
-        <v>129.12921127067</v>
+        <v>129.129114690944</v>
       </c>
       <c r="AA35" s="49" t="n">
-        <v>5332</v>
+        <v>5334</v>
       </c>
       <c r="AB35" s="55" t="n">
-        <v>3726.57421852428</v>
+        <v>3729.08642820784</v>
       </c>
       <c r="AC35" s="56" t="n">
-        <v>134.723275792239</v>
+        <v>134.81738681084</v>
       </c>
       <c r="AD35" s="49" t="n">
-        <v>5432</v>
+        <v>5435</v>
       </c>
       <c r="AE35" s="55" t="n">
-        <v>3854.80106111345</v>
+        <v>3853.96917153074</v>
       </c>
       <c r="AF35" s="56" t="n">
-        <v>139.657643460152</v>
-      </c>
-      <c r="AG35" s="19"/>
+        <v>139.587720617081</v>
+      </c>
+      <c r="AG35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="19"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="20" t="n">
+      <c r="G36" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13" t="n">
         <v>3840</v>
       </c>
-      <c r="P36" s="42" t="n">
+      <c r="P36" s="37" t="n">
         <v>181.9255915555</v>
       </c>
-      <c r="Q36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="20" t="n">
+      <c r="Q36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13" t="n">
         <v>2267</v>
       </c>
-      <c r="S36" s="42" t="n">
+      <c r="S36" s="37" t="n">
         <v>178.918297594517</v>
       </c>
-      <c r="T36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="20" t="n">
-        <v>2270</v>
-      </c>
-      <c r="V36" s="42" t="n">
-        <v>180.811265104831</v>
-      </c>
-      <c r="W36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="20" t="n">
-        <v>2258</v>
-      </c>
-      <c r="Y36" s="42" t="n">
-        <v>180.094284473626</v>
-      </c>
-      <c r="Z36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="20" t="n">
-        <v>2252</v>
-      </c>
-      <c r="AB36" s="42" t="n">
-        <v>179.8235834699</v>
-      </c>
-      <c r="AC36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="20" t="n">
+      <c r="T36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="13" t="n">
+        <v>2271</v>
+      </c>
+      <c r="V36" s="37" t="n">
+        <v>180.859440300069</v>
+      </c>
+      <c r="W36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13" t="n">
+        <v>2259</v>
+      </c>
+      <c r="Y36" s="37" t="n">
+        <v>180.141822042475</v>
+      </c>
+      <c r="Z36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="13" t="n">
+        <v>2251</v>
+      </c>
+      <c r="AB36" s="37" t="n">
+        <v>179.702385288417</v>
+      </c>
+      <c r="AC36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13" t="n">
         <v>2247</v>
       </c>
-      <c r="AE36" s="42" t="n">
-        <v>180.301549105538</v>
-      </c>
-      <c r="AF36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="19"/>
+      <c r="AE36" s="37" t="n">
+        <v>180.187460122546</v>
+      </c>
+      <c r="AF36" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="19"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G37" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="20" t="n">
+      <c r="G37" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="n">
         <v>710</v>
       </c>
-      <c r="P37" s="42" t="n">
+      <c r="P37" s="37" t="n">
         <v>131.9087898</v>
       </c>
-      <c r="Q37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="20" t="n">
+      <c r="Q37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13" t="n">
         <v>696</v>
       </c>
-      <c r="S37" s="42" t="n">
+      <c r="S37" s="37" t="n">
         <v>128.639848931243</v>
       </c>
-      <c r="T37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="20" t="n">
+      <c r="T37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="13" t="n">
         <v>734</v>
       </c>
-      <c r="V37" s="42" t="n">
+      <c r="V37" s="37" t="n">
         <v>136.110328409637</v>
       </c>
-      <c r="W37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="20" t="n">
+      <c r="W37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="13" t="n">
         <v>772</v>
       </c>
-      <c r="Y37" s="42" t="n">
-        <v>143.04478524568</v>
-      </c>
-      <c r="Z37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="20" t="n">
+      <c r="Y37" s="37" t="n">
+        <v>143.044070061783</v>
+      </c>
+      <c r="Z37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="13" t="n">
         <v>799</v>
       </c>
-      <c r="AB37" s="42" t="n">
-        <v>147.961737429957</v>
-      </c>
-      <c r="AC37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="20" t="n">
-        <v>829</v>
-      </c>
-      <c r="AE37" s="42" t="n">
-        <v>154.112391769305</v>
-      </c>
-      <c r="AF37" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="19"/>
+      <c r="AB37" s="37" t="n">
+        <v>147.960361805706</v>
+      </c>
+      <c r="AC37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13" t="n">
+        <v>828</v>
+      </c>
+      <c r="AE37" s="37" t="n">
+        <v>153.935668205184</v>
+      </c>
+      <c r="AF37" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="19"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="20" t="n">
+      <c r="G38" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="P38" s="42" t="n">
+      <c r="P38" s="37" t="n">
         <v>48.0623733</v>
       </c>
-      <c r="Q38" s="26" t="n">
+      <c r="Q38" s="19" t="n">
         <v>0.1</v>
       </c>
-      <c r="R38" s="20" t="n">
+      <c r="R38" s="13" t="n">
         <v>210</v>
       </c>
-      <c r="S38" s="42" t="n">
+      <c r="S38" s="37" t="n">
         <v>50.2793492802391</v>
       </c>
-      <c r="T38" s="26" t="n">
+      <c r="T38" s="19" t="n">
         <v>0.0989216200467483</v>
       </c>
-      <c r="U38" s="20" t="n">
+      <c r="U38" s="13" t="n">
         <v>166</v>
       </c>
-      <c r="V38" s="42" t="n">
+      <c r="V38" s="37" t="n">
         <v>39.7373996916242</v>
       </c>
-      <c r="W38" s="26" t="n">
+      <c r="W38" s="19" t="n">
         <v>0.0779591335786599</v>
       </c>
-      <c r="X38" s="20" t="n">
+      <c r="X38" s="13" t="n">
         <v>156</v>
       </c>
-      <c r="Y38" s="42" t="n">
-        <v>37.2745122491994</v>
-      </c>
-      <c r="Z38" s="26" t="n">
-        <v>0.0710074192848869</v>
-      </c>
-      <c r="AA38" s="20" t="n">
-        <v>143</v>
-      </c>
-      <c r="AB38" s="42" t="n">
-        <v>33.9452408620381</v>
-      </c>
-      <c r="AC38" s="26" t="n">
-        <v>0.0578061747742536</v>
-      </c>
-      <c r="AD38" s="20" t="n">
+      <c r="Y38" s="37" t="n">
+        <v>37.274325812387</v>
+      </c>
+      <c r="Z38" s="19" t="n">
+        <v>0.0710013313003664</v>
+      </c>
+      <c r="AA38" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB38" s="37" t="n">
+        <v>34.1945770510499</v>
+      </c>
+      <c r="AC38" s="19" t="n">
+        <v>0.0586008587212373</v>
+      </c>
+      <c r="AD38" s="13" t="n">
         <v>141</v>
       </c>
-      <c r="AE38" s="42" t="n">
-        <v>33.3654918282688</v>
-      </c>
-      <c r="AF38" s="26" t="n">
-        <v>0.0535692963450547</v>
-      </c>
-      <c r="AG38" s="19"/>
+      <c r="AE38" s="37" t="n">
+        <v>33.3665710355901</v>
+      </c>
+      <c r="AF38" s="19" t="n">
+        <v>0.0536045372257542</v>
+      </c>
+      <c r="AG38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="19"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20" t="n">
+      <c r="G39" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13" t="n">
         <v>1470</v>
       </c>
-      <c r="P39" s="42" t="n">
+      <c r="P39" s="37" t="n">
         <v>743.5268148</v>
       </c>
-      <c r="Q39" s="26" t="n">
+      <c r="Q39" s="19" t="n">
         <v>15.9912162162162</v>
       </c>
-      <c r="R39" s="20" t="n">
+      <c r="R39" s="13" t="n">
         <v>1445</v>
       </c>
-      <c r="S39" s="42" t="n">
+      <c r="S39" s="37" t="n">
         <v>731.631631432279</v>
       </c>
-      <c r="T39" s="26" t="n">
+      <c r="T39" s="19" t="n">
         <v>15.7505332998834</v>
       </c>
-      <c r="U39" s="20" t="n">
+      <c r="U39" s="13" t="n">
         <v>1520</v>
       </c>
-      <c r="V39" s="42" t="n">
+      <c r="V39" s="37" t="n">
         <v>755.236268395794</v>
       </c>
-      <c r="W39" s="26" t="n">
+      <c r="W39" s="19" t="n">
         <v>15.968669223047</v>
       </c>
-      <c r="X39" s="20" t="n">
+      <c r="X39" s="13" t="n">
         <v>1564</v>
       </c>
-      <c r="Y39" s="42" t="n">
-        <v>768.423475106745</v>
-      </c>
-      <c r="Z39" s="26" t="n">
-        <v>16.0690773893885</v>
-      </c>
-      <c r="AA39" s="20" t="n">
-        <v>1617</v>
-      </c>
-      <c r="AB39" s="42" t="n">
-        <v>787.467295837193</v>
-      </c>
-      <c r="AC39" s="26" t="n">
-        <v>16.3217997987143</v>
-      </c>
-      <c r="AD39" s="20" t="n">
-        <v>1665</v>
-      </c>
-      <c r="AE39" s="42" t="n">
-        <v>809.68955980594</v>
-      </c>
-      <c r="AF39" s="26" t="n">
-        <v>16.7581963641212</v>
-      </c>
-      <c r="AG39" s="19"/>
+      <c r="Y39" s="37" t="n">
+        <v>768.421305638525</v>
+      </c>
+      <c r="Z39" s="19" t="n">
+        <v>16.0689868976476</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>1618</v>
+      </c>
+      <c r="AB39" s="37" t="n">
+        <v>788.050604888019</v>
+      </c>
+      <c r="AC39" s="19" t="n">
+        <v>16.3359111715746</v>
+      </c>
+      <c r="AD39" s="13" t="n">
+        <v>1668</v>
+      </c>
+      <c r="AE39" s="37" t="n">
+        <v>811.235707267836</v>
+      </c>
+      <c r="AF39" s="19" t="n">
+        <v>16.7920305292185</v>
+      </c>
+      <c r="AG39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="19"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="20" t="n">
+      <c r="G40" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13" t="n">
         <v>210</v>
       </c>
-      <c r="P40" s="42" t="n">
+      <c r="P40" s="37" t="n">
         <v>282.799002</v>
       </c>
-      <c r="Q40" s="26" t="n">
+      <c r="Q40" s="19" t="n">
         <v>11.34</v>
       </c>
-      <c r="R40" s="20" t="n">
+      <c r="R40" s="13" t="n">
         <v>207</v>
       </c>
-      <c r="S40" s="42" t="n">
+      <c r="S40" s="37" t="n">
         <v>278.59160205389</v>
       </c>
-      <c r="T40" s="26" t="n">
+      <c r="T40" s="19" t="n">
         <v>11.1687357017901</v>
       </c>
-      <c r="U40" s="20" t="n">
+      <c r="U40" s="13" t="n">
         <v>233</v>
       </c>
-      <c r="V40" s="42" t="n">
+      <c r="V40" s="37" t="n">
         <v>311.012807309695</v>
       </c>
-      <c r="W40" s="26" t="n">
+      <c r="W40" s="19" t="n">
         <v>12.4293004237344</v>
       </c>
-      <c r="X40" s="20" t="n">
+      <c r="X40" s="13" t="n">
         <v>257</v>
       </c>
-      <c r="Y40" s="42" t="n">
+      <c r="Y40" s="37" t="n">
         <v>340.871175876078</v>
       </c>
-      <c r="Z40" s="26" t="n">
+      <c r="Z40" s="19" t="n">
         <v>13.589085989228</v>
       </c>
-      <c r="AA40" s="20" t="n">
-        <v>281</v>
-      </c>
-      <c r="AB40" s="42" t="n">
-        <v>372.64647608437</v>
-      </c>
-      <c r="AC40" s="26" t="n">
-        <v>14.854949928202</v>
-      </c>
-      <c r="AD40" s="20" t="n">
-        <v>303</v>
-      </c>
-      <c r="AE40" s="42" t="n">
-        <v>402.444854102098</v>
-      </c>
-      <c r="AF40" s="26" t="n">
-        <v>16.0524578058835</v>
-      </c>
-      <c r="AG40" s="19"/>
+      <c r="AA40" s="13" t="n">
+        <v>282</v>
+      </c>
+      <c r="AB40" s="37" t="n">
+        <v>374.448614333832</v>
+      </c>
+      <c r="AC40" s="19" t="n">
+        <v>14.9341548899951</v>
+      </c>
+      <c r="AD40" s="13" t="n">
+        <v>305</v>
+      </c>
+      <c r="AE40" s="37" t="n">
+        <v>405.754207565491</v>
+      </c>
+      <c r="AF40" s="19" t="n">
+        <v>16.1945474000291</v>
+      </c>
+      <c r="AG40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="19"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="20" t="n">
+      <c r="G41" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13" t="n">
         <v>230</v>
       </c>
-      <c r="P41" s="42" t="n">
+      <c r="P41" s="37" t="n">
         <v>2025.433223</v>
       </c>
-      <c r="Q41" s="26" t="n">
+      <c r="Q41" s="19" t="n">
         <v>94.9</v>
       </c>
-      <c r="R41" s="20" t="n">
+      <c r="R41" s="13" t="n">
         <v>227</v>
       </c>
-      <c r="S41" s="42" t="n">
+      <c r="S41" s="37" t="n">
         <v>1975.57711878632</v>
       </c>
-      <c r="T41" s="26" t="n">
+      <c r="T41" s="19" t="n">
         <v>92.5157574560589</v>
       </c>
-      <c r="U41" s="20" t="n">
+      <c r="U41" s="13" t="n">
         <v>235</v>
       </c>
-      <c r="V41" s="42" t="n">
+      <c r="V41" s="37" t="n">
         <v>2077.26816206587</v>
       </c>
-      <c r="W41" s="26" t="n">
+      <c r="W41" s="19" t="n">
         <v>97.3447573349486</v>
       </c>
-      <c r="X41" s="20" t="n">
+      <c r="X41" s="13" t="n">
         <v>237</v>
       </c>
-      <c r="Y41" s="42" t="n">
+      <c r="Y41" s="37" t="n">
         <v>2120.02816620056</v>
       </c>
-      <c r="Z41" s="26" t="n">
+      <c r="Z41" s="19" t="n">
         <v>99.4000404727684</v>
       </c>
-      <c r="AA41" s="20" t="n">
+      <c r="AA41" s="13" t="n">
         <v>240</v>
       </c>
-      <c r="AB41" s="42" t="n">
+      <c r="AB41" s="37" t="n">
         <v>2204.72988484082</v>
       </c>
-      <c r="AC41" s="26" t="n">
+      <c r="AC41" s="19" t="n">
         <v>103.488719890549</v>
       </c>
-      <c r="AD41" s="20" t="n">
-        <v>247</v>
-      </c>
-      <c r="AE41" s="42" t="n">
-        <v>2274.8872145023</v>
-      </c>
-      <c r="AF41" s="26" t="n">
-        <v>106.793419993802</v>
-      </c>
-      <c r="AG41" s="19"/>
+      <c r="AD41" s="13" t="n">
+        <v>246</v>
+      </c>
+      <c r="AE41" s="37" t="n">
+        <v>2269.48955733409</v>
+      </c>
+      <c r="AF41" s="19" t="n">
+        <v>106.547538150608</v>
+      </c>
+      <c r="AG41" s="11"/>
     </row>
     <row r="42">
       <c r="B42" s="43"/>
@@ -4804,632 +4807,632 @@
         <v>8.34312311344332</v>
       </c>
       <c r="U42" s="49" t="n">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V42" s="55" t="n">
-        <v>1009.77696804369</v>
+        <v>1009.3342585985</v>
       </c>
       <c r="W42" s="56" t="n">
-        <v>8.92273147116197</v>
+        <v>8.92080903494873</v>
       </c>
       <c r="X42" s="49" t="n">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y42" s="55" t="n">
-        <v>1048.44786541363</v>
+        <v>1047.99523344086</v>
       </c>
       <c r="Z42" s="56" t="n">
-        <v>9.35912928812921</v>
+        <v>9.35712501285679</v>
       </c>
       <c r="AA42" s="49" t="n">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AB42" s="55" t="n">
-        <v>1086.29657559891</v>
+        <v>1083.81109583809</v>
       </c>
       <c r="AC42" s="56" t="n">
-        <v>9.78236343740537</v>
+        <v>9.764400089739</v>
       </c>
       <c r="AD42" s="49" t="n">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="AE42" s="55" t="n">
-        <v>1114.98908659723</v>
+        <v>1116.32738564593</v>
       </c>
       <c r="AF42" s="56" t="n">
-        <v>10.0840729163471</v>
-      </c>
-      <c r="AG42" s="19"/>
+        <v>10.130343918339</v>
+      </c>
+      <c r="AG42" s="11"/>
     </row>
     <row r="43">
-      <c r="B43" s="7"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="20" t="n">
+      <c r="G43" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="13" t="n">
         <v>600</v>
       </c>
-      <c r="P43" s="42" t="n">
+      <c r="P43" s="37" t="n">
         <v>40.094066196</v>
       </c>
-      <c r="Q43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="20" t="n">
+      <c r="Q43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13" t="n">
         <v>527</v>
       </c>
-      <c r="S43" s="42" t="n">
+      <c r="S43" s="37" t="n">
         <v>39.7175575230007</v>
       </c>
-      <c r="T43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="20" t="n">
+      <c r="T43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="13" t="n">
         <v>526</v>
       </c>
-      <c r="V43" s="42" t="n">
+      <c r="V43" s="37" t="n">
         <v>39.977096478996</v>
       </c>
-      <c r="W43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="20" t="n">
+      <c r="W43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="13" t="n">
         <v>532</v>
       </c>
-      <c r="Y43" s="42" t="n">
-        <v>40.7804500628784</v>
-      </c>
-      <c r="Z43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="20" t="n">
+      <c r="Y43" s="37" t="n">
+        <v>40.7800781239341</v>
+      </c>
+      <c r="Z43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="13" t="n">
         <v>528</v>
       </c>
-      <c r="AB43" s="42" t="n">
-        <v>40.1616782256625</v>
-      </c>
-      <c r="AC43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="20" t="n">
-        <v>529</v>
-      </c>
-      <c r="AE43" s="42" t="n">
-        <v>40.5137739348282</v>
-      </c>
-      <c r="AF43" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="19"/>
+      <c r="AB43" s="37" t="n">
+        <v>40.1608367274499</v>
+      </c>
+      <c r="AC43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="13" t="n">
+        <v>528</v>
+      </c>
+      <c r="AE43" s="37" t="n">
+        <v>40.4599970267821</v>
+      </c>
+      <c r="AF43" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11"/>
     </row>
     <row r="44">
-      <c r="B44" s="7"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="20" t="n">
+      <c r="G44" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="P44" s="42" t="n">
+      <c r="P44" s="37" t="n">
         <v>488.7422066</v>
       </c>
-      <c r="Q44" s="26" t="n">
+      <c r="Q44" s="19" t="n">
         <v>2.42015313020164</v>
       </c>
-      <c r="R44" s="20" t="n">
+      <c r="R44" s="13" t="n">
         <v>987</v>
       </c>
-      <c r="S44" s="42" t="n">
+      <c r="S44" s="37" t="n">
         <v>480.792667124724</v>
       </c>
-      <c r="T44" s="26" t="n">
+      <c r="T44" s="19" t="n">
         <v>2.37582918112744</v>
       </c>
-      <c r="U44" s="20" t="n">
-        <v>1014</v>
-      </c>
-      <c r="V44" s="42" t="n">
-        <v>501.964843638349</v>
-      </c>
-      <c r="W44" s="26" t="n">
-        <v>2.50735310405685</v>
-      </c>
-      <c r="X44" s="20" t="n">
-        <v>1035</v>
-      </c>
-      <c r="Y44" s="42" t="n">
-        <v>519.093606067042</v>
-      </c>
-      <c r="Z44" s="26" t="n">
-        <v>2.61678702936948</v>
-      </c>
-      <c r="AA44" s="20" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AB44" s="42" t="n">
-        <v>539.722427395583</v>
-      </c>
-      <c r="AC44" s="26" t="n">
-        <v>2.7446276829911</v>
-      </c>
-      <c r="AD44" s="20" t="n">
-        <v>1083</v>
-      </c>
-      <c r="AE44" s="42" t="n">
-        <v>557.730466014723</v>
-      </c>
-      <c r="AF44" s="26" t="n">
-        <v>2.86386152279358</v>
-      </c>
-      <c r="AG44" s="19"/>
+      <c r="U44" s="13" t="n">
+        <v>1013</v>
+      </c>
+      <c r="V44" s="37" t="n">
+        <v>501.522134193155</v>
+      </c>
+      <c r="W44" s="19" t="n">
+        <v>2.50543066784362</v>
+      </c>
+      <c r="X44" s="13" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Y44" s="37" t="n">
+        <v>518.641346033216</v>
+      </c>
+      <c r="Z44" s="19" t="n">
+        <v>2.61478275409705</v>
+      </c>
+      <c r="AA44" s="13" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AB44" s="37" t="n">
+        <v>537.237789132974</v>
+      </c>
+      <c r="AC44" s="19" t="n">
+        <v>2.72666433532474</v>
+      </c>
+      <c r="AD44" s="13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AE44" s="37" t="n">
+        <v>553.724884803259</v>
+      </c>
+      <c r="AF44" s="19" t="n">
+        <v>2.83445421590717</v>
+      </c>
+      <c r="AG44" s="11"/>
     </row>
     <row r="45">
-      <c r="B45" s="21"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="n">
+      <c r="G45" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="J45" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="n">
+      <c r="J45" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="n">
+      <c r="M45" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="23" t="n">
         <v>0</v>
       </c>
       <c r="O45" s="53" t="n">
         <v>90</v>
       </c>
-      <c r="P45" s="37" t="n">
+      <c r="P45" s="31" t="n">
         <v>447.461955</v>
       </c>
-      <c r="Q45" s="3" t="n">
+      <c r="Q45" s="23" t="n">
         <v>6.13416785745269</v>
       </c>
       <c r="R45" s="53" t="n">
         <v>89</v>
       </c>
-      <c r="S45" s="37" t="n">
+      <c r="S45" s="31" t="n">
         <v>436.900499188415</v>
       </c>
-      <c r="T45" s="3" t="n">
+      <c r="T45" s="23" t="n">
         <v>5.96729393231588</v>
       </c>
       <c r="U45" s="53" t="n">
         <v>94</v>
       </c>
-      <c r="V45" s="37" t="n">
+      <c r="V45" s="31" t="n">
         <v>467.835027926347</v>
       </c>
-      <c r="W45" s="3" t="n">
+      <c r="W45" s="23" t="n">
         <v>6.41537836710512</v>
       </c>
       <c r="X45" s="53" t="n">
         <v>96</v>
       </c>
-      <c r="Y45" s="37" t="n">
+      <c r="Y45" s="31" t="n">
         <v>488.573809283714</v>
       </c>
-      <c r="Z45" s="3" t="n">
+      <c r="Z45" s="23" t="n">
         <v>6.74234225875974</v>
       </c>
       <c r="AA45" s="53" t="n">
         <v>97</v>
       </c>
-      <c r="AB45" s="37" t="n">
+      <c r="AB45" s="31" t="n">
         <v>506.412469977669</v>
       </c>
-      <c r="AC45" s="3" t="n">
+      <c r="AC45" s="23" t="n">
         <v>7.03773575441427</v>
       </c>
       <c r="AD45" s="53" t="n">
-        <v>97</v>
-      </c>
-      <c r="AE45" s="37" t="n">
-        <v>516.744846647684</v>
-      </c>
-      <c r="AF45" s="3" t="n">
-        <v>7.22021139355349</v>
-      </c>
-      <c r="AG45" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="AE45" s="31" t="n">
+        <v>522.142503815893</v>
+      </c>
+      <c r="AF45" s="23" t="n">
+        <v>7.29588970243186</v>
+      </c>
+      <c r="AG45" s="11"/>
     </row>
     <row r="46">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="19"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="11"/>
     </row>
     <row r="47">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="19"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="11"/>
     </row>
     <row r="48">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
     </row>
     <row r="49">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
     </row>
     <row r="50">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
     </row>
     <row r="51">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
     </row>
     <row r="52">
-      <c r="B52" s="38"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="19"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
